--- a/target/classes/com/utils/YourStore.xlsx
+++ b/target/classes/com/utils/YourStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\eclipse-workspace\YourStore\src\main\java\com\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B7F8A9-7720-4135-B9EE-C47735FADB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39E4C8D-E053-45F1-8046-70DC80E5D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1DC6EEB9-76EA-4A68-AFC4-427F64B11DB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1DC6EEB9-76EA-4A68-AFC4-427F64B11DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -132,10 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,20 +445,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D56D20-2BBA-4ECE-B484-25FCB937C658}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -496,7 +488,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>7600768118</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -521,25 +513,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EA6CF7-C83A-4CD3-8D1D-5598DF383478}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
